--- a/src/main/resources/Data/AccountDetails.xlsx
+++ b/src/main/resources/Data/AccountDetails.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\SeleniumFramework\Demo\src\main\resources\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60583048-8F1A-4D4C-8A57-5A6888E7E07D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{819DE02B-51BF-474C-9E12-362D0B74A810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B3CB7613-4157-43A5-81F1-23F91D60FB48}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>FirstName</t>
   </si>
@@ -84,40 +84,16 @@
     <t>S@6Q96QP</t>
   </si>
   <si>
-    <t>Pei</t>
-  </si>
-  <si>
-    <t>Waelchi</t>
-  </si>
-  <si>
-    <t>reatha.heaney@hotmail.com</t>
-  </si>
-  <si>
-    <t>N04nL63F%</t>
-  </si>
-  <si>
-    <t>Damion</t>
-  </si>
-  <si>
-    <t>Rosenbaum</t>
-  </si>
-  <si>
-    <t>katrina.reilly@hotmail.com</t>
-  </si>
-  <si>
-    <t>89Q6E3ji</t>
-  </si>
-  <si>
-    <t>Qiana</t>
-  </si>
-  <si>
-    <t>Donnelly</t>
-  </si>
-  <si>
-    <t>willie.collier@yahoo.com</t>
-  </si>
-  <si>
-    <t>iF6p#0@u</t>
+    <t>Augustus</t>
+  </si>
+  <si>
+    <t>Ziemann</t>
+  </si>
+  <si>
+    <t>matthew.mayert@yahoo.com</t>
+  </si>
+  <si>
+    <t>A$u*8$pE</t>
   </si>
 </sst>
 </file>
@@ -470,10 +446,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA116DBB-C75F-464E-8AAA-77FB6B476031}">
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -497,7 +473,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A2" t="s" s="0">
         <v>4</v>
       </c>
@@ -511,7 +487,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A3" t="s" s="0">
         <v>8</v>
       </c>
@@ -525,7 +501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A4" t="s" s="0">
         <v>12</v>
       </c>
@@ -551,34 +527,6 @@
       </c>
       <c r="D5" t="s" s="0">
         <v>19</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="s" s="0">
-        <v>20</v>
-      </c>
-      <c r="B6" t="s" s="0">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s" s="0">
-        <v>22</v>
-      </c>
-      <c r="D6" t="s" s="0">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="s" s="0">
-        <v>24</v>
-      </c>
-      <c r="B7" t="s" s="0">
-        <v>25</v>
-      </c>
-      <c r="C7" t="s" s="0">
-        <v>26</v>
-      </c>
-      <c r="D7" t="s" s="0">
-        <v>27</v>
       </c>
     </row>
   </sheetData>
